--- a/DataMataKuliah.xlsx
+++ b/DataMataKuliah.xlsx
@@ -143,7 +143,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
